--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22650" windowHeight="12015"/>
+    <workbookView windowWidth="22080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -59,6 +59,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>EUnitType</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>##</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>测试说明</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>体重</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
   <si>
     <t>UnitConfig.Name.1001</t>
@@ -1128,7 +1137,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1182,73 +1191,73 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1264,20 +1273,20 @@
       <c r="B5" s="3">
         <v>1002</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -1293,20 +1302,20 @@
       <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1323,20 +1332,20 @@
       <c r="B7" s="3">
         <v>1004</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>带有强力攻击技能4</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>UnitConfig.Name.5001</t>
   </si>
 </sst>
 </file>
@@ -1134,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.1666666666667" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.6666666666667" style="4" customWidth="1"/>
@@ -1288,7 +1294,7 @@
       <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
       <c r="I5" s="8">
@@ -1318,10 +1324,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>178</v>
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>279</v>
       </c>
       <c r="J6" s="3">
         <v>68</v>
@@ -1347,13 +1353,43 @@
       <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="8">
-        <v>2</v>
+      <c r="H7" s="3">
+        <v>4</v>
       </c>
       <c r="I7" s="8">
         <v>278</v>
       </c>
       <c r="J7" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>278</v>
+      </c>
+      <c r="J8" s="8">
         <v>78</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>带有强力攻击技能4</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>UnitConfig.Name.2001</t>
   </si>
   <si>
     <t>Bullet</t>
@@ -1140,13 +1146,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.1666666666667" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.6666666666667" style="4" customWidth="1"/>
@@ -1363,33 +1369,62 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
+    <row r="8" spans="2:10">
       <c r="B8" s="3">
-        <v>5001</v>
+        <v>2001</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>178</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <v>278</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <v>78</v>
       </c>
     </row>
